--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>issue_id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -49,130 +49,154 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>816f99d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/visualization/wcsaxes/tests/test_images.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/units/tests/test_quantity_ufuncs.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>91375b0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>29d5afb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在构建时出现错误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ddc0afc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5046a36</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/ascii/tests/test_connect.py:astropy/io/ascii/tests/test_read.py:astropy/time/tests/test_basic.py:astropy/time/tests/test_mask.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7b54fab</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_frames.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b454ec7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cba287f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_funcs.py:astropy/stats/tests/test_sigma_clipping.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4df4d7e</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cdbf35b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dbbfd8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5e6ff3f</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>816f99d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/visualization/wcsaxes/tests/test_images.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cdbf35b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/units/tests/test_quantity_ufuncs.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>91375b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>29d5afb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>在构建时出现错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ddc0afc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5046a36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9c43b17</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/io/ascii/tests/test_connect.py:astropy/io/ascii/tests/test_read.py:astropy/time/tests/test_basic.py:astropy/time/tests/test_mask.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7b54fab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3ec8875</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/coordinates/tests/test_frames.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>b454ec7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cba287f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>d7a3f55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -181,27 +205,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/stats/tests/test_funcs.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dbbfd8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4df4d7e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
+    <t>7a3c50a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6c25ca1:4272dd0:533bb37</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -209,7 +217,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -228,6 +236,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -254,9 +268,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -540,8 +557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -550,193 +567,193 @@
     <col min="3" max="3" width="16.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.875" customWidth="1"/>
-    <col min="7" max="7" width="53.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="140.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>7912</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>7796</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>7796</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="C3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
+      <c r="E3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>7587</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>7371</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>7110</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
+        <v>5629</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>5303</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>7791</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>7791</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="E9" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="F9" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>7587</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>7371</v>
-      </c>
-      <c r="B6" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>7110</v>
-      </c>
-      <c r="B7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" t="s">
-        <v>34</v>
-      </c>
-      <c r="D7" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>5629</v>
-      </c>
-      <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5303</v>
-      </c>
-      <c r="B9" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D9" t="s">
-        <v>43</v>
-      </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,210 +20,302 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>issue_id</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>upstream_commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>upstream_repo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>downstream_repo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>downstream_commit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>test_cases</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>816f99d</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/visualization/wcsaxes/tests/test_images.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/units/tests/test_quantity_ufuncs.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>91375b0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>29d5afb</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>在构建时出现错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>ddc0afc</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5046a36</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/io/ascii/tests/test_connect.py:astropy/io/ascii/tests/test_read.py:astropy/time/tests/test_basic.py:astropy/time/tests/test_mask.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7b54fab</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/coordinates/tests/test_frames.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>b454ec7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cba287f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_funcs.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>4df4d7e</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>cdbf35b</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3dbbfd8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>5e6ff3f</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>9c43b17</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>3ec8875</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>d7a3f55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>69f9e7a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>7a3c50a</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>6c25ca1:4272dd0:533bb37</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bug_commit</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>cf73c76</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_earth.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>a859ace</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e8301c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a3c50a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#selected tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#total tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb46a49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a84c56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/fits/tests/test_checksum.py:astropy/io/fits/tests/test_connect.py:astropy/io/fits/tests/test_table.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cd9e73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/table_test.py:astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7caac2e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -246,13 +339,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -264,20 +389,44 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="5">
+    <cellStyle name="40% - 着色 3" xfId="4" builtinId="39"/>
+    <cellStyle name="差" xfId="3" builtinId="27"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
+    <cellStyle name="好" xfId="2" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -557,8 +706,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -757,7 +906,225 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="4">
+        <v>7587</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="4">
+        <v>7371</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="5">
+        <v>7110</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="5">
+        <v>228</v>
+      </c>
+      <c r="F4" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="5">
+        <v>7051</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="5">
+        <v>228</v>
+      </c>
+      <c r="F5" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="5">
+        <v>5629</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="5">
+        <v>233</v>
+      </c>
+      <c r="F6" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="5">
+        <v>5303</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E7" s="5">
+        <v>232</v>
+      </c>
+      <c r="F7" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
+        <v>3848</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E8" s="5">
+        <v>240</v>
+      </c>
+      <c r="F8" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="5">
+        <v>3803</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="5">
+        <v>243</v>
+      </c>
+      <c r="F9" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="5">
+        <v>465</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E10" s="5">
+        <v>243</v>
+      </c>
+      <c r="F10" s="5">
+        <v>283</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
   <si>
     <t>issue_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -295,6 +295,18 @@
   </si>
   <si>
     <t>7caac2e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36f481b^5 -&gt; 36f481b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/utils/iers/tests/test_iers.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -914,10 +926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -925,9 +937,9 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="70.75" style="3" customWidth="1"/>
+    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
     <col min="7" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
@@ -1025,19 +1037,19 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
-        <v>5629</v>
+        <v>6645</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>32</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="E6" s="5">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="F6" s="5">
         <v>283</v>
@@ -1045,19 +1057,19 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
-        <v>5303</v>
+        <v>5629</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>49</v>
+        <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="E7" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F7" s="5">
         <v>283</v>
@@ -1065,19 +1077,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
-        <v>3848</v>
+        <v>5303</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E8" s="5">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="F8" s="5">
         <v>283</v>
@@ -1085,19 +1097,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
-        <v>3803</v>
+        <v>3848</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E9" s="5">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F9" s="5">
         <v>283</v>
@@ -1105,21 +1117,41 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
-        <v>465</v>
+        <v>3803</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5">
         <v>243</v>
       </c>
       <c r="F10" s="5">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="5">
+        <v>465</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E11" s="5">
+        <v>243</v>
+      </c>
+      <c r="F11" s="5">
         <v>283</v>
       </c>
     </row>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
   <si>
     <t>issue_id</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -242,71 +242,75 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>#selected tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#total tests</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/fits/tests/test_checksum.py:astropy/io/fits/tests/test_connect.py:astropy/io/fits/tests/test_table.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/table_test.py:astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7caac2e</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>36f481b^5 -&gt; 36f481b</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/utils/iers/tests/test_iers.py</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>533bb37^3 -&gt; 533bb37</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e8301c</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a3c50a</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb46a49</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a84c56</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cd9e73</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>a859ace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5e8301c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a3c50a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#selected tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>#total tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb46a49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a84c56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/io/fits/tests/test_checksum.py:astropy/io/fits/tests/test_connect.py:astropy/io/fits/tests/test_table.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3cd9e73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/io/votable/tests/table_test.py:astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7caac2e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36f481b^5 -&gt; 36f481b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/utils/iers/tests/test_iers.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -929,7 +933,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K26" sqref="K26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -957,10 +961,10 @@
         <v>5</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -971,7 +975,7 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>47</v>
+        <v>66</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
@@ -1003,7 +1007,7 @@
         <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>52</v>
@@ -1023,7 +1027,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>52</v>
@@ -1040,16 +1044,16 @@
         <v>6645</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F6" s="5">
         <v>283</v>
@@ -1063,13 +1067,13 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>34</v>
       </c>
       <c r="E7" s="5">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="F7" s="5">
         <v>283</v>
@@ -1083,13 +1087,13 @@
         <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E8" s="5">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="5">
         <v>283</v>
@@ -1100,16 +1104,16 @@
         <v>3848</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" s="5">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="F9" s="5">
         <v>283</v>
@@ -1123,10 +1127,10 @@
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="E10" s="5">
         <v>243</v>
@@ -1140,13 +1144,13 @@
         <v>465</v>
       </c>
       <c r="B11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="E11" s="5">
         <v>243</v>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -20,310 +20,386 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>issue_id</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>upstream_commit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>upstream_repo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>downstream_repo</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>downstream_commit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>test_cases</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>816f99d</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/visualization/wcsaxes/tests/test_images.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/units/tests/test_quantity_ufuncs.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>91375b0</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>29d5afb</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>在构建时出现错误</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>ddc0afc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5046a36</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/io/ascii/tests/test_connect.py:astropy/io/ascii/tests/test_read.py:astropy/time/tests/test_basic.py:astropy/time/tests/test_mask.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7b54fab</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/coordinates/tests/test_frames.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>b454ec7</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cba287f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_funcs.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>4df4d7e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cdbf35b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3dbbfd8</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>5e6ff3f</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>9c43b17</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>3ec8875</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>d7a3f55</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>69f9e7a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7a3c50a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>6c25ca1:4272dd0:533bb37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>bug_commit</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>cf73c76</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_circstats.py:astropy/stats/tests/test_sigma_clipping.py:astropy/stats/tests/test_sigma_clipping.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/coordinates/tests/test_earth.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#selected tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>#total tests</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/io/fits/tests/test_checksum.py:astropy/io/fits/tests/test_connect.py:astropy/io/fits/tests/test_table.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/io/votable/tests/table_test.py:astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/utils/iers/tests/test_iers.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>numpy</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>533bb37^3 -&gt; 533bb37</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a859ace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#total testcases</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>#selected testcases</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cd9e73</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36f481b^5 -&gt; 36f481b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_frames.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>rank</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>5e8301c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>2/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a3c50a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47,13/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>134/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb46a49</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,137/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a84c56</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>67,5/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>7caac2e</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>36f481b^5 -&gt; 36f481b</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/utils/iers/tests/test_iers.py</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>numpy</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>533bb37^3 -&gt; 533bb37</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>5e8301c</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a3c50a</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb46a49</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a84c56</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>3cd9e73</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>a859ace</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/283</t>
+  </si>
+  <si>
+    <t>1,11,1/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -407,33 +483,36 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -922,7 +1001,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -930,10 +1009,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -941,13 +1020,15 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="70.75" style="3" customWidth="1"/>
+    <col min="4" max="4" width="140.5" style="3" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.875" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9" style="3"/>
+    <col min="6" max="7" width="11.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -966,8 +1047,17 @@
       <c r="F1" s="6" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>7587</v>
       </c>
@@ -975,15 +1065,18 @@
         <v>19</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>7371</v>
       </c>
@@ -998,8 +1091,11 @@
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="5">
         <v>7110</v>
       </c>
@@ -1007,10 +1103,10 @@
         <v>53</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
       <c r="E4" s="5">
         <v>228</v>
@@ -1018,8 +1114,17 @@
       <c r="F4" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G4" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H4" s="5">
+        <v>3752</v>
+      </c>
+      <c r="I4" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="5">
         <v>7051</v>
       </c>
@@ -1027,7 +1132,7 @@
         <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>52</v>
@@ -1038,19 +1143,28 @@
       <c r="F5" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G5" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="5">
+        <v>3752</v>
+      </c>
+      <c r="I5" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="5">
         <v>6645</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5">
         <v>243</v>
@@ -1058,8 +1172,17 @@
       <c r="F6" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="H6" s="5">
+        <v>4073</v>
+      </c>
+      <c r="I6" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="5">
         <v>5629</v>
       </c>
@@ -1067,7 +1190,7 @@
         <v>32</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>34</v>
@@ -1078,8 +1201,17 @@
       <c r="F7" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G7" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="5">
+        <v>3810</v>
+      </c>
+      <c r="I7" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>5303</v>
       </c>
@@ -1087,7 +1219,7 @@
         <v>49</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>69</v>
+        <v>78</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>57</v>
@@ -1098,8 +1230,17 @@
       <c r="F8" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="5">
+        <v>3791</v>
+      </c>
+      <c r="I8" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>3848</v>
       </c>
@@ -1107,7 +1248,7 @@
         <v>58</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>60</v>
@@ -1118,8 +1259,17 @@
       <c r="F9" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G9" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H9" s="5">
+        <v>4073</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>3803</v>
       </c>
@@ -1127,7 +1277,7 @@
         <v>53</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>59</v>
@@ -1138,8 +1288,17 @@
       <c r="F10" s="5">
         <v>283</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H10" s="5">
+        <v>4073</v>
+      </c>
+      <c r="I10" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>465</v>
       </c>
@@ -1147,7 +1306,7 @@
         <v>58</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>82</v>
       </c>
       <c r="D11" s="5" t="s">
         <v>61</v>
@@ -1158,9 +1317,18 @@
       <c r="F11" s="5">
         <v>283</v>
       </c>
+      <c r="G11" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="5">
+        <v>4073</v>
+      </c>
+      <c r="I11" s="5">
+        <v>4289</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="104">
   <si>
     <t>issue_id</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -230,10 +230,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/coordinates/tests/test_earth.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>numpy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -250,30 +246,10 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/stats/tests/test_sigma_clipping.py:astropy/table/tests/test_info.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>numpy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>astropy/io/fits/tests/test_checksum.py:astropy/io/fits/tests/test_connect.py:astropy/io/fits/tests/test_table.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/io/votable/tests/table_test.py:astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/io/votable/tests/vo_test.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/utils/iers/tests/test_iers.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>numpy</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -282,10 +258,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>a859ace</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>#total testcases</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -294,16 +266,23 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>3cd9e73</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>36f481b^5 -&gt; 36f481b</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>astropy/coordinates/tests/test_frames.py</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>5e8301c</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>134/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>bb46a49</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7caac2e</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/283</t>
   </si>
   <si>
     <r>
@@ -318,59 +297,207 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t>rank</t>
+      <t>approach1 rank</t>
     </r>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>5e8301c</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>86/283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
+    <t>#approach2 rank</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>36f481b^5 -&gt; 36f481b</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a3c50a</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>7a84c56</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>33/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>3cd9e73</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_frames.py</t>
   </si>
   <si>
     <t>2/283</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>7a3c50a</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>47,13/283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>134/283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>bb46a49</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1,137/283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7a84c56</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>67,5/283</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>7caac2e</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1/283</t>
-  </si>
-  <si>
-    <t>1,11,1/283</t>
+    <t>79/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_frames.py::test_transform_to_nonscalar_nodata_frame</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>a859ace</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_earth.py::test_of_address
+astropy/coordinates/tests/test_frames.py::test_transform_to_nonscalar_nodata_frame</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/vo_test.py::test_from_scratch_example</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/table_test.py::test_table
+astropy/io/votable/tests/table_test.py::test_read_through_table_interface
+astropy/io/votable/tests/vo_test.py::TestParse.test_array
+astropy/io/votable/tests/vo_test.py::TestParse.test_bitvararray
+astropy/io/votable/tests/vo_test.py::TestParse.test_bitvararray2
+astropy/io/votable/tests/vo_test.py::TestParse.test_doubleComplexArray
+astropy/io/votable/tests/vo_test.py::TestParse.test_double_array</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>t</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>est_files</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/coordinates/tests/test_earth.py
+astropy/coordinates/tests/test_frames.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/utils/iers/tests/test_iers.py::TestIERS_Auto::test_simple</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/utils/iers/tests/test_iers.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_funcs.py:astropy/stats/tests/test_sigma_clipping.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_funcs.py
+astropy/stats/tests/test_sigma_clipping.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_sigma_clipping.py::test_sigma_clip
+astropy/stats/tests/test_sigma_clipping.py::test_sigma_clipped_stats
+astropy/stats/tests/test_sigma_clipping.py::test_sigmaclip_negative_axis
+astropy/table/tests/test_info.py::test_ignore_warnings</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/stats/tests/test_sigma_clipping.py
+astropy/table/tests/test_info.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/table_test.py
+astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/fits/tests/test_checksum.py
+astropy/io/fits/tests/test_connect.py
+astropy/io/fits/tests/test_table.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/votable/tests/vo_test.py</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>astropy/io/fits/tests/test_checksum.py::TestChecksumFunctions.test_ascii_table_data
+astropy/io/fits/tests/test_connect.py::TestSingleTable.test_read_from_fileobj
+astropy/io/fits/tests/test_connect.py::TestMultipleHDU.test_read
+astropy/io/fits/tests/test_connect.py::TestMultipleHDU.test_read_with_hdu_1
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_ascii_table
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_new_table_from_recarray
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_new_fitsrec
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_string_column_padding
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_string_array_round_trip
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_new_table_with_nd_column
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_dump_load_round_trip
+astropy/io/fits/tests/test_table.py::TestTableFunctions.test_load_guess_format</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>86/283
+2/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>102/283
+79/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>47/283
+13/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>8/283
+39/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/283
+137/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>39/283
+79/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>67/283
+5/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>19/283
+33/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1/283
+11/283
+1/283</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>150/283
+19/283
+79/283</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -472,12 +599,45 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -494,7 +654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -504,16 +664,37 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="2" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="4" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1009,324 +1190,385 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="7.625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="140.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.25" style="3" customWidth="1"/>
-    <col min="6" max="7" width="11.875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="17.125" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="3"/>
+    <col min="3" max="3" width="22.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="44.125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="77.375" style="3" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="14" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" style="3" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="14.75" style="3" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="7">
+        <v>7587</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="8"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="7">
+        <v>7371</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="9">
+        <v>7110</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="9">
+        <v>228</v>
+      </c>
+      <c r="G4" s="9">
+        <v>283</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="J4" s="5">
+        <v>3752</v>
+      </c>
+      <c r="K4" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="9">
+        <v>7051</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F5" s="9">
+        <v>228</v>
+      </c>
+      <c r="G5" s="9">
+        <v>283</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="J5" s="5">
+        <v>3752</v>
+      </c>
+      <c r="K5" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="9">
+        <v>6645</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F6" s="9">
+        <v>243</v>
+      </c>
+      <c r="G6" s="9">
+        <v>283</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="J6" s="5">
+        <v>4073</v>
+      </c>
+      <c r="K6" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="9">
+        <v>5629</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F7" s="9">
+        <v>236</v>
+      </c>
+      <c r="G7" s="9">
+        <v>283</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="J7" s="5">
+        <v>3810</v>
+      </c>
+      <c r="K7" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="57" x14ac:dyDescent="0.2">
+      <c r="A8" s="9">
+        <v>5303</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="9">
+        <v>233</v>
+      </c>
+      <c r="G8" s="9">
+        <v>283</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J8" s="5">
+        <v>3791</v>
+      </c>
+      <c r="K8" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="9">
+        <v>3848</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="C9" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="H1" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="4">
-        <v>7587</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="4" t="s">
+      <c r="D9" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" s="9">
+        <v>243</v>
+      </c>
+      <c r="G9" s="9">
+        <v>283</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="J9" s="5">
+        <v>4073</v>
+      </c>
+      <c r="K9" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="171" x14ac:dyDescent="0.2">
+      <c r="A10" s="9">
+        <v>3803</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F10" s="9">
+        <v>243</v>
+      </c>
+      <c r="G10" s="9">
+        <v>283</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4073</v>
+      </c>
+      <c r="K10" s="5">
+        <v>4289</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="14">
+        <v>465</v>
+      </c>
+      <c r="B11" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="4">
-        <v>7371</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="5">
-        <v>7110</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C4" s="5" t="s">
+      <c r="D11" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="E11" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F11" s="14">
+        <v>243</v>
+      </c>
+      <c r="G11" s="14">
+        <v>283</v>
+      </c>
+      <c r="H11" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="5">
-        <v>228</v>
-      </c>
-      <c r="F4" s="5">
-        <v>283</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="5">
-        <v>3752</v>
-      </c>
-      <c r="I4" s="5">
+      <c r="I11" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J11" s="5">
+        <v>4073</v>
+      </c>
+      <c r="K11" s="5">
         <v>4289</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="5">
-        <v>7051</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E5" s="5">
-        <v>228</v>
-      </c>
-      <c r="F5" s="5">
-        <v>283</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="5">
-        <v>3752</v>
-      </c>
-      <c r="I5" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="5">
-        <v>6645</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="5">
-        <v>243</v>
-      </c>
-      <c r="F6" s="5">
-        <v>283</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="5">
-        <v>4073</v>
-      </c>
-      <c r="I6" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>5629</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="5">
-        <v>236</v>
-      </c>
-      <c r="F7" s="5">
-        <v>283</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H7" s="5">
-        <v>3810</v>
-      </c>
-      <c r="I7" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A8" s="5">
-        <v>5303</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="5">
-        <v>233</v>
-      </c>
-      <c r="F8" s="5">
-        <v>283</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="5">
-        <v>3791</v>
-      </c>
-      <c r="I8" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="5">
-        <v>3848</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="E9" s="5">
-        <v>243</v>
-      </c>
-      <c r="F9" s="5">
-        <v>283</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" s="5">
-        <v>4073</v>
-      </c>
-      <c r="I9" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="5">
-        <v>3803</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="5">
-        <v>243</v>
-      </c>
-      <c r="F10" s="5">
-        <v>283</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="H10" s="5">
-        <v>4073</v>
-      </c>
-      <c r="I10" s="5">
-        <v>4289</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="5">
-        <v>465</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E11" s="5">
-        <v>243</v>
-      </c>
-      <c r="F11" s="5">
-        <v>283</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" s="5">
-        <v>4073</v>
-      </c>
-      <c r="I11" s="5">
-        <v>4289</v>
-      </c>
-    </row>
+    <row r="12" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/dataset.xlsx
+++ b/dataset.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="465" windowWidth="27585" windowHeight="17535"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="27585" windowHeight="17535" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="astropy" sheetId="5" r:id="rId1"/>
-    <sheet name="nipype" sheetId="3" r:id="rId2"/>
-    <sheet name="scipy" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId2"/>
+    <sheet name="nipype" sheetId="3" r:id="rId3"/>
+    <sheet name="scipy" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="87">
   <si>
     <t>astropy/coordinates/tests/test_frames.py</t>
   </si>
@@ -346,12 +347,48 @@
 79/231</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>修改的上游方法名称</t>
+  </si>
+  <si>
+    <t>直接影响的上游方法个数</t>
+  </si>
+  <si>
+    <t>直接影响的上游文件个数</t>
+  </si>
+  <si>
+    <t>影响的(包括间接）上游方法总个数</t>
+  </si>
+  <si>
+    <t>影响的(包括间接）上游文件总个数</t>
+  </si>
+  <si>
+    <t>下游项目名称</t>
+  </si>
+  <si>
+    <t>影响的下游方法个数(不包括测试)</t>
+  </si>
+  <si>
+    <t>影响的下游文件个数不包括测试)</t>
+  </si>
+  <si>
+    <t>影响的下游测试用例个数</t>
+  </si>
+  <si>
+    <t>影响的下游测试文件个数</t>
+  </si>
+  <si>
+    <t>下游测试用例总数</t>
+  </si>
+  <si>
+    <t>下游的测试文件总数</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -444,6 +481,12 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -471,7 +514,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -512,6 +555,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -525,7 +583,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -585,6 +643,9 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -866,8 +927,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1258,6 +1319,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:12" ht="57.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>77</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>78</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>79</v>
+      </c>
+      <c r="F1" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G1" s="22" t="s">
+        <v>81</v>
+      </c>
+      <c r="H1" s="22" t="s">
+        <v>82</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="L1" s="22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="12" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1283,7 +1398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C1"/>
   <sheetViews>
